--- a/Data Files/rawData/login-data.xlsx
+++ b/Data Files/rawData/login-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7050"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <t>repeat_pass</t>
   </si>
   <si>
-    <t>sequrity_quetion</t>
+    <t>sequrity_question</t>
   </si>
   <si>
     <t>answer_question</t>
@@ -47,7 +47,7 @@
     <t>toggle</t>
   </si>
   <si>
-    <t>neruooo@gmail.com</t>
+    <t>neruooo21@gmail.com</t>
   </si>
   <si>
     <t>7MGyO6nNPL0MxZN8nAwIaA==</t>
@@ -111,7 +111,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +125,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,154 +567,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1045,7 +1038,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1180,7 +1173,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="neruooo@gmail.com" tooltip="mailto:neruooo@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="neruooo21@gmail.com" tooltip="mailto:neruooo21@gmail.com"/>
     <hyperlink ref="A3" r:id="rId2" display="petruk34@gmail.com" tooltip="mailto:petruk34@gmail.com"/>
     <hyperlink ref="A4" r:id="rId3" display="dekil35@gmail.com" tooltip="mailto:dekil35@gmail.com"/>
     <hyperlink ref="A5" r:id="rId4" display="kusstii@gmail.com" tooltip="mailto:kusstii@gmail.com"/>
